--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Set" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
   <si>
     <t>level</t>
   </si>
@@ -1150,7 +1150,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1255,6 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1540,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3819,7 +3820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4470,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4929,31 +4930,49 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B57" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B58" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B59" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B60" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B61" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="B62" t="s">
         <v>260</v>
       </c>

--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean.hardison\Documents\git\InportXML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew.Beet\Documents\MyWork\InportXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Set" sheetId="3" r:id="rId1"/>
+    <sheet name="Data_Set" sheetId="3" r:id="rId1"/>
     <sheet name="Entity" sheetId="1" r:id="rId2"/>
     <sheet name="List_Var" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -1156,12 +1156,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1256,6 +1250,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1541,2223 +1541,2223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="84.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="84.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <f>IF(C7="Ecosystems Dynamics and Assessment Branch",23135,IF(C7="Protected Species Branch",22554,IF(C7="Population Dynamics Branch",22555,IF(C7="Social Sciences Branch",22553,"NA"))))</f>
         <v>23135</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="49" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>3</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>3</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>3</v>
-      </c>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>3</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>3</v>
-      </c>
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>3</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>2</v>
-      </c>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
-        <v>3</v>
-      </c>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>2</v>
-      </c>
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
-        <v>3</v>
-      </c>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>2</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>2</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>1</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>2</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>2</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>2</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>1</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>3</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="45"/>
+      <c r="D43" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>3</v>
-      </c>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>3</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>3</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="C52" s="17"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="C53" s="17"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="C54" s="17"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>3</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>3</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>2</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>3</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>3</v>
-      </c>
-      <c r="B61" s="9" t="s">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>3</v>
-      </c>
-      <c r="B62" s="9" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>3</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>3</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>3</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>3</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>3</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>3</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="C67" s="47"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>3</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>3</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>3</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="C70" s="17"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>3</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="C71" s="17"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>3</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>3</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="C73" s="17"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>3</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="C74" s="17"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>3</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>2</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>2</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>3</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
-        <v>3</v>
-      </c>
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="45"/>
+      <c r="D79" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>3</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>3</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>3</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="C80" s="17"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>3</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>3</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="C81" s="17"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>3</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>3</v>
-      </c>
-      <c r="B83" s="9" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>3</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>3</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="C83" s="17"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>3</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>3</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="C84" s="17"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>3</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>3</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="C85" s="17"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>3</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>3</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="C86" s="17"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>3</v>
-      </c>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="11"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>3</v>
-      </c>
-      <c r="B89" s="9" t="s">
+      <c r="C88" s="17"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>3</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>3</v>
-      </c>
-      <c r="B90" s="9" t="s">
+      <c r="C89" s="17"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>3</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="11"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>3</v>
-      </c>
-      <c r="B91" s="9" t="s">
+      <c r="C90" s="17"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>3</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>3</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="C91" s="17"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>3</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="11"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>3</v>
-      </c>
-      <c r="B93" s="9" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>3</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>3</v>
-      </c>
-      <c r="B94" s="9" t="s">
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>3</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>2</v>
-      </c>
-      <c r="B95" s="9" t="s">
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="11"/>
-    </row>
-    <row r="96" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>3</v>
-      </c>
-      <c r="B96" s="9" t="s">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>3</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>3</v>
-      </c>
-      <c r="B97" s="9" t="s">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>3</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="11" t="s">
+      <c r="C97" s="45"/>
+      <c r="D97" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>3</v>
-      </c>
-      <c r="B98" s="9" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>3</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>3</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="C98" s="17"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>3</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="11"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>3</v>
-      </c>
-      <c r="B100" s="9" t="s">
+      <c r="C99" s="17"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>3</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>3</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="C100" s="17"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>3</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="11"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>3</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="C101" s="17"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>3</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="11"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>3</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="C102" s="17"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>3</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
-        <v>3</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="C103" s="17"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="11"/>
-    </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>3</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="C104" s="17"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>3</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>3</v>
-      </c>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>3</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>3</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>3</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="11"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>3</v>
-      </c>
-      <c r="B108" s="9" t="s">
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>3</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
-        <v>3</v>
-      </c>
-      <c r="B109" s="9" t="s">
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>3</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
-        <v>3</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>3</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
-        <v>3</v>
-      </c>
-      <c r="B111" s="9" t="s">
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>3</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
-        <v>3</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>3</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
         <v>1</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
-        <v>2</v>
-      </c>
-      <c r="B114" s="9" t="s">
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>2</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
-        <v>3</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>3</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>4</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
         <v>5</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="11" t="s">
+      <c r="C117" s="17"/>
+      <c r="D117" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
-        <v>3</v>
-      </c>
-      <c r="B118" s="9" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>3</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>4</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>5</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
+    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
         <v>5</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="47"/>
-      <c r="D121" s="11" t="s">
+      <c r="C121" s="45"/>
+      <c r="D121" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>1</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
-        <v>2</v>
-      </c>
-      <c r="B123" s="9" t="s">
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
-        <v>2</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>2</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="11" t="s">
+      <c r="C124" s="17"/>
+      <c r="D124" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
-        <v>2</v>
-      </c>
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>2</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="11" t="s">
+      <c r="C125" s="17"/>
+      <c r="D125" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>1</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
-        <v>2</v>
-      </c>
-      <c r="B127" s="9" t="s">
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="11"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
-        <v>3</v>
-      </c>
-      <c r="B128" s="9" t="s">
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>3</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="19"/>
-      <c r="D128" s="11" t="s">
+      <c r="C128" s="17"/>
+      <c r="D128" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
-        <v>3</v>
-      </c>
-      <c r="B129" s="9" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>3</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="11" t="s">
+      <c r="C129" s="17"/>
+      <c r="D129" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <v>1</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
-        <v>2</v>
-      </c>
-      <c r="B131" s="9" t="s">
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>2</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C131" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
-        <v>2</v>
-      </c>
-      <c r="B132" s="9" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>2</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C132" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
-        <v>2</v>
-      </c>
-      <c r="B133" s="9" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>2</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="48" t="s">
+      <c r="C133" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
-        <v>2</v>
-      </c>
-      <c r="B134" s="9" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="19"/>
-      <c r="D134" s="11" t="s">
+      <c r="C134" s="17"/>
+      <c r="D134" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
         <v>1</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="11"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
-        <v>2</v>
-      </c>
-      <c r="B136" s="9" t="s">
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>2</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
-        <v>2</v>
-      </c>
-      <c r="B137" s="9" t="s">
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>2</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
-        <v>2</v>
-      </c>
-      <c r="B138" s="9" t="s">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>2</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
-        <v>2</v>
-      </c>
-      <c r="B139" s="9" t="s">
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>2</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
-        <v>2</v>
-      </c>
-      <c r="B140" s="9" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>2</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="17">
         <v>0</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
-        <v>2</v>
-      </c>
-      <c r="B141" s="9" t="s">
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>2</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="19" t="str">
+      <c r="C141" s="17" t="str">
         <f>IF(C140&lt;&gt;0,"ENTER EXPLANATION","NA")</f>
         <v>NA</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
-        <v>2</v>
-      </c>
-      <c r="B142" s="9" t="s">
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>2</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
-        <v>2</v>
-      </c>
-      <c r="B143" s="9" t="s">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>2</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="19" t="str">
+      <c r="C143" s="17" t="str">
         <f>IF(C142 = "To Be Determined", "ENTER EXPLANATION", IF(C142 = "Unable to Archive", "ENTER EXPLANATION", IF(C142 = "No Archiving Intended", "ENTER EXPLANATION","NA")))</f>
         <v>NA</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
-        <v>2</v>
-      </c>
-      <c r="B144" s="9" t="s">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>2</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C144" s="17">
         <f>C140</f>
         <v>0</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
-        <v>2</v>
-      </c>
-      <c r="B145" s="9" t="s">
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>2</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="19"/>
-      <c r="D145" s="11" t="s">
+      <c r="C145" s="17"/>
+      <c r="D145" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
         <v>1</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="11"/>
-    </row>
-    <row r="147" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
-        <v>2</v>
-      </c>
-      <c r="B147" s="9" t="s">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>2</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C147" s="19"/>
-      <c r="D147" s="50" t="s">
+      <c r="C147" s="17"/>
+      <c r="D147" s="48" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="7">
-        <v>2</v>
-      </c>
-      <c r="B148" s="9" t="s">
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>2</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="46"/>
-    </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="14">
-        <v>3</v>
-      </c>
-      <c r="B149" s="17" t="s">
+      <c r="D148" s="9"/>
+      <c r="E148" s="44"/>
+    </row>
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>3</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="50" t="s">
+      <c r="D149" s="48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="13">
         <v>4</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C150" s="19">
+      <c r="C150" s="17">
         <v>1</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="13">
         <v>4</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="19"/>
-      <c r="D151" s="11" t="s">
+      <c r="C151" s="17"/>
+      <c r="D151" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="15">
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="13">
         <v>4</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D152" s="11"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="14">
-        <v>3</v>
-      </c>
-      <c r="B153" s="17" t="s">
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>3</v>
+      </c>
+      <c r="B153" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="20"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="15">
+      <c r="D153" s="18"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="13">
         <v>4</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C154" s="19">
-        <v>2</v>
-      </c>
-      <c r="D154" s="11" t="s">
+      <c r="C154" s="17">
+        <v>2</v>
+      </c>
+      <c r="D154" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="15">
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
         <v>4</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="19"/>
-      <c r="D155" s="11" t="s">
+      <c r="C155" s="17"/>
+      <c r="D155" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="14">
-        <v>3</v>
-      </c>
-      <c r="B156" s="17" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>3</v>
+      </c>
+      <c r="B156" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D156" s="20"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="15">
+      <c r="D156" s="18"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="13">
         <v>4</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="19">
-        <v>3</v>
-      </c>
-      <c r="D157" s="11" t="s">
+      <c r="C157" s="17">
+        <v>3</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="15">
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
         <v>4</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="11" t="s">
+      <c r="C158" s="17"/>
+      <c r="D158" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="14">
-        <v>3</v>
-      </c>
-      <c r="B159" s="17" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>3</v>
+      </c>
+      <c r="B159" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="20"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="15">
+      <c r="D159" s="18"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="13">
         <v>4</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C160" s="19">
+      <c r="C160" s="17">
         <v>4</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="13">
         <v>4</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C161" s="19"/>
-      <c r="D161" s="11" t="s">
+      <c r="C161" s="17"/>
+      <c r="D161" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="13">
         <v>4</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D162" s="11"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="16">
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="14">
         <v>4</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="41" t="s">
+      <c r="C163" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D163" s="21"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="14">
-        <v>3</v>
-      </c>
-      <c r="B164" s="17" t="s">
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>3</v>
+      </c>
+      <c r="B164" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D164" s="20"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="15">
+      <c r="D164" s="18"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="13">
         <v>4</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="19">
+      <c r="C165" s="17">
         <v>5</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="13">
         <v>4</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C166" s="19"/>
-      <c r="D166" s="11" t="s">
+      <c r="C166" s="17"/>
+      <c r="D166" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="13">
         <v>4</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C167" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D167" s="11"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="16">
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="14">
         <v>4</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D168" s="21"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
         <v>1</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D169" s="11"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
-        <v>2</v>
-      </c>
-      <c r="B170" s="9" t="s">
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <v>2</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="11"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
-        <v>2</v>
-      </c>
-      <c r="B171" s="9" t="s">
+      <c r="C170" s="22"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>2</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="11"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
-        <v>2</v>
-      </c>
-      <c r="B172" s="9" t="s">
+      <c r="C171" s="22"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>2</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="24"/>
-      <c r="D172" s="11"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
-        <v>2</v>
-      </c>
-      <c r="B173" s="9" t="s">
+      <c r="C172" s="22"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>2</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="24"/>
-      <c r="D173" s="11"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
-        <v>2</v>
-      </c>
-      <c r="B174" s="9" t="s">
+      <c r="C173" s="22"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>2</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="24"/>
-      <c r="D174" s="11"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
-        <v>2</v>
-      </c>
-      <c r="B175" s="9" t="s">
+      <c r="C174" s="22"/>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>2</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="24"/>
-      <c r="D175" s="11"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
-        <v>2</v>
-      </c>
-      <c r="B176" s="9" t="s">
+      <c r="C175" s="22"/>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>2</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="11"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
-        <v>2</v>
-      </c>
-      <c r="B177" s="9" t="s">
+      <c r="C176" s="22"/>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>2</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="11"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
-        <v>2</v>
-      </c>
-      <c r="B178" s="9" t="s">
+      <c r="C177" s="22"/>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>2</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="11"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
-        <v>2</v>
-      </c>
-      <c r="B179" s="9" t="s">
+      <c r="C178" s="22"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>2</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C179" s="24"/>
-      <c r="D179" s="11"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
-        <v>2</v>
-      </c>
-      <c r="B180" s="9" t="s">
+      <c r="C179" s="22"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>2</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="11"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="7">
-        <v>2</v>
-      </c>
-      <c r="B181" s="9" t="s">
+      <c r="C180" s="22"/>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>2</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="11"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="7">
-        <v>2</v>
-      </c>
-      <c r="B182" s="9" t="s">
+      <c r="C181" s="22"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>2</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="24"/>
-      <c r="D182" s="11"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="7">
-        <v>2</v>
-      </c>
-      <c r="B183" s="9" t="s">
+      <c r="C182" s="22"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>2</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="11"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="7">
-        <v>2</v>
-      </c>
-      <c r="B184" s="9" t="s">
+      <c r="C183" s="22"/>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>2</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="24"/>
-      <c r="D184" s="11"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="7">
-        <v>2</v>
-      </c>
-      <c r="B185" s="9" t="s">
+      <c r="C184" s="22"/>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>2</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="24"/>
-      <c r="D185" s="11"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="6">
-        <v>2</v>
-      </c>
-      <c r="B186" s="8" t="s">
+      <c r="C185" s="22"/>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>2</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="43"/>
-      <c r="D186" s="10"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3824,618 +3824,618 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="71.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24">
-        <f>'Data Set'!C5</f>
+      <c r="C7" s="22">
+        <f>Data_Set!C5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="str">
-        <f>'Data Set'!C9</f>
+      <c r="C8" s="22" t="str">
+        <f>Data_Set!C9</f>
         <v>Project</v>
       </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>3</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>3</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>3</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>2</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>3</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>3</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
-        <v>3</v>
-      </c>
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>3</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>1</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>2</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>3</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>3</v>
-      </c>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>3</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
-        <v>3</v>
-      </c>
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>3</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>1</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>2</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>3</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>3</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>3</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
-        <v>3</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>3</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>1</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>2</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <v>3</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <v>3</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
-        <v>3</v>
-      </c>
-      <c r="B44" s="18" t="s">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>3</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="21" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>1</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>2</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>3</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
-        <v>3</v>
-      </c>
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>3</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4471,17 +4471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4553,15 +4553,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4585,392 +4585,392 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B34" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B44" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B47" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="52" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="52" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="52" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="52" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="52" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="52" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B62" t="s">

--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Set" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="263">
   <si>
     <t>level</t>
   </si>
@@ -88,9 +88,6 @@
     <t>HEAD</t>
   </si>
   <si>
-    <t>Define the entity type here. Possible inputs include Data Table, Spreadsheet, GIS file,  etc.</t>
-  </si>
-  <si>
     <t>Specify the name of a data attribute. Non-tabular entities are allowed to have no attributes</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Describe the attribute (e.g. "Mid-Atlantic Bight CHL 2007-2017")</t>
   </si>
   <si>
-    <t>Describe the entity (e.g. Mean annual CHL within Northeast Large Marine Ecosystem Ecological Production Units between 2007-2017")</t>
-  </si>
-  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
   </si>
   <si>
     <t>Attributes (data set components)*</t>
-  </si>
-  <si>
-    <t>*An attribute is required for each data set element (e.g. column variable if tabular long format). Copy and paste to add attributes.</t>
   </si>
   <si>
     <t xml:space="preserve">To update an existing catalog item; enter its catalog item ID here. Do not include this tag if you are creating a new item; rather than updating an existing item.		</t>
@@ -931,6 +922,18 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>*Copy and paste outlined sections to add attributes. An attribute is required for each column or field within the entity</t>
+  </si>
+  <si>
+    <t>What's the structure of the data set? Possible inputs include spreadsheet, GIS file,  etc.</t>
+  </si>
+  <si>
+    <t>Describe the data set (e.g. Mean annual CHL within Northeast Large Marine Ecosystem Ecological Production Units between 2007-2017")</t>
+  </si>
+  <si>
+    <t>*A data entity is used to describe a data set or report that contains attributes (columns or fields of data). This entity is nested within the data set metadata (previous tab).</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1327,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1446,6 +1449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1732,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,13 +1752,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
       <c r="E1" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1769,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1784,7 +1790,7 @@
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1796,10 +1802,10 @@
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1811,7 +1817,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1822,10 +1828,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -1837,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -1853,7 +1859,7 @@
         <v>23135</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1864,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -1873,11 +1879,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="52" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1885,11 +1891,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1897,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>19</v>
@@ -1923,13 +1929,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1937,11 +1943,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1949,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>19</v>
@@ -1961,11 +1967,11 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1973,11 +1979,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>19</v>
@@ -1997,11 +2003,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2009,11 +2015,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>19</v>
@@ -2033,11 +2039,11 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2045,11 +2051,11 @@
         <v>3</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>19</v>
@@ -2069,11 +2075,11 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2081,11 +2087,11 @@
         <v>3</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,11 +2127,11 @@
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,11 +2139,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,13 +2151,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>19</v>
@@ -2171,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2185,11 +2191,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -2197,13 +2203,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2211,11 +2217,11 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="52" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,11 +2229,11 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -2235,11 +2241,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>19</v>
@@ -2259,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>19</v>
@@ -2271,13 +2277,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,11 +2291,11 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2297,11 +2303,11 @@
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="9"/>
@@ -2319,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="9"/>
@@ -2329,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="9"/>
@@ -2339,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="9"/>
@@ -2349,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="9"/>
@@ -2359,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="9"/>
@@ -2369,13 +2375,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="9"/>
@@ -2393,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="9"/>
@@ -2403,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="9"/>
@@ -2413,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="9"/>
@@ -2423,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="9"/>
@@ -2433,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D57" s="9"/>
     </row>
@@ -2445,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -2457,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>19</v>
@@ -2469,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2483,11 +2489,11 @@
         <v>3</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="9"/>
@@ -2505,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="9"/>
@@ -2515,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="9"/>
@@ -2525,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="9"/>
@@ -2535,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="9"/>
@@ -2545,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="9"/>
@@ -2555,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="9"/>
@@ -2565,13 +2571,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="9"/>
@@ -2589,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="9"/>
@@ -2599,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="9"/>
@@ -2609,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="9"/>
@@ -2619,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="9"/>
@@ -2629,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D75" s="9"/>
     </row>
@@ -2641,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -2653,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>19</v>
@@ -2665,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2679,11 +2685,11 @@
         <v>3</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="9"/>
@@ -2701,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="9"/>
@@ -2711,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="9"/>
@@ -2721,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="9"/>
@@ -2731,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="9"/>
@@ -2741,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C85" s="47"/>
       <c r="D85" s="9"/>
@@ -2751,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="9"/>
@@ -2761,13 +2767,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2775,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="9"/>
@@ -2785,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="9"/>
@@ -2795,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C90" s="47"/>
       <c r="D90" s="9"/>
@@ -2805,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="9"/>
@@ -2815,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="9"/>
@@ -2825,10 +2831,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D93" s="9"/>
     </row>
@@ -2837,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D94" s="9"/>
     </row>
@@ -2849,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>19</v>
@@ -2861,13 +2867,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2875,11 +2881,11 @@
         <v>3</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2887,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="9"/>
@@ -2897,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="9"/>
@@ -2907,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="9"/>
@@ -2917,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="9"/>
@@ -2927,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="9"/>
@@ -2937,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="9"/>
@@ -2947,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="9"/>
@@ -2957,13 +2963,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2971,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="9"/>
@@ -2981,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="9"/>
@@ -2991,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C108" s="47"/>
       <c r="D108" s="9"/>
@@ -3001,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="9"/>
@@ -3011,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="9"/>
@@ -3021,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D111" s="9"/>
     </row>
@@ -3033,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D112" s="9"/>
     </row>
@@ -3045,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>19</v>
@@ -3057,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>19</v>
@@ -3069,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>19</v>
@@ -3081,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C116" s="22" t="s">
         <v>19</v>
@@ -3093,11 +3099,11 @@
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C117" s="46"/>
       <c r="D117" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="9"/>
@@ -3115,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="9"/>
@@ -3125,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="9"/>
@@ -3144,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>19</v>
@@ -3156,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C123" s="22" t="s">
         <v>19</v>
@@ -3168,13 +3174,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3182,11 +3188,11 @@
         <v>5</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>19</v>
@@ -3206,13 +3212,13 @@
         <v>2</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,11 +3226,11 @@
         <v>2</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -3232,11 +3238,11 @@
         <v>2</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3244,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>19</v>
@@ -3256,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>19</v>
@@ -3268,11 +3274,11 @@
         <v>3</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,11 +3286,11 @@
         <v>3</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3292,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>19</v>
@@ -3304,11 +3310,11 @@
         <v>2</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3316,11 +3322,11 @@
         <v>2</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,11 +3334,11 @@
         <v>2</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3340,11 +3346,11 @@
         <v>2</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>19</v>
@@ -3364,13 +3370,13 @@
         <v>2</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3378,11 +3384,11 @@
         <v>2</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C141" s="17"/>
       <c r="D141" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3390,13 +3396,13 @@
         <v>2</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3404,13 +3410,13 @@
         <v>2</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3418,13 +3424,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C144" s="17">
         <v>0</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3432,13 +3438,13 @@
         <v>2</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3446,13 +3452,13 @@
         <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3460,14 +3466,14 @@
         <v>2</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C147" s="17" t="str">
         <f>IF(C146 = "To Be Determined", "ENTER EXPLANATION", IF(C146 = "Unable to Archive", "ENTER EXPLANATION", IF(C146 = "No Archiving Intended", "ENTER EXPLANATION","")))</f>
         <v/>
       </c>
       <c r="D147" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3475,14 +3481,14 @@
         <v>2</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C148" s="17">
         <f>C144</f>
         <v>0</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3490,11 +3496,11 @@
         <v>2</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>19</v>
@@ -3514,11 +3520,11 @@
         <v>2</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3526,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>19</v>
@@ -3539,13 +3545,13 @@
         <v>3</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,13 +3559,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C154" s="46">
         <v>1</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3571,7 +3577,7 @@
       </c>
       <c r="C155" s="46"/>
       <c r="D155" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3579,10 +3585,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D156" s="9"/>
     </row>
@@ -3591,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C157" s="23" t="s">
         <v>19</v>
@@ -3603,13 +3609,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C158" s="46">
         <v>2</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3621,7 +3627,7 @@
       </c>
       <c r="C159" s="46"/>
       <c r="D159" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3629,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C160" s="23" t="s">
         <v>19</v>
@@ -3641,13 +3647,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C161" s="46">
         <v>3</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3659,7 +3665,7 @@
       </c>
       <c r="C162" s="46"/>
       <c r="D162" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3667,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>19</v>
@@ -3679,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C164" s="46">
         <v>4</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,7 +3703,7 @@
       </c>
       <c r="C165" s="46"/>
       <c r="D165" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3705,10 +3711,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -3717,10 +3723,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D167" s="19"/>
     </row>
@@ -3729,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>19</v>
@@ -3741,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C169" s="46">
         <v>5</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3759,7 +3765,7 @@
       </c>
       <c r="C170" s="46"/>
       <c r="D170" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3767,10 +3773,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -3779,10 +3785,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C172" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D172" s="19"/>
     </row>
@@ -3791,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C173" s="22" t="s">
         <v>19</v>
@@ -3803,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="9"/>
@@ -3813,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="9"/>
@@ -3823,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="9"/>
@@ -3833,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="9"/>
@@ -3843,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="9"/>
@@ -3853,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="9"/>
@@ -3863,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="9"/>
@@ -3873,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="9"/>
@@ -3883,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="9"/>
@@ -3893,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C183" s="50"/>
       <c r="D183" s="9"/>
@@ -3903,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="9"/>
@@ -3913,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="9"/>
@@ -3923,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="9"/>
@@ -3933,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="9"/>
@@ -3943,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="9"/>
@@ -3953,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="9"/>
@@ -3963,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C190" s="41"/>
       <c r="D190" s="8"/>
@@ -4035,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4044,23 +4050,20 @@
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="71.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
     <col min="7" max="7" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
-      <c r="E1" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -4073,8 +4076,8 @@
       <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>39</v>
+      <c r="E2" s="62" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4088,11 +4091,8 @@
         <v>19</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4101,9 +4101,6 @@
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="26" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
@@ -4114,7 +4111,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4125,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -4141,6 +4138,9 @@
         <v>0</v>
       </c>
       <c r="D7" s="9"/>
+      <c r="E7" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -4154,6 +4154,9 @@
         <v>Project</v>
       </c>
       <c r="D8" s="28"/>
+      <c r="E8" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -4166,8 +4169,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -4176,7 +4182,10 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>260</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -4188,7 +4197,7 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4199,13 +4208,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
     </row>
-    <row r="14" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4255,7 +4264,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4267,7 +4276,7 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4279,7 +4288,7 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4291,7 +4300,7 @@
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4327,7 +4336,7 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4339,7 +4348,7 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4351,7 +4360,7 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4363,7 +4372,7 @@
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4399,7 +4408,7 @@
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4411,7 +4420,7 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -4423,7 +4432,7 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4435,7 +4444,7 @@
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4471,7 +4480,7 @@
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4483,7 +4492,7 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4495,7 +4504,7 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4507,7 +4516,7 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4543,7 +4552,7 @@
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -4555,7 +4564,7 @@
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -4567,7 +4576,7 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4579,7 +4588,7 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,7 +4624,7 @@
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4627,7 +4636,7 @@
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,7 +4648,7 @@
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4651,10 +4660,11 @@
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
@@ -4663,78 +4673,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
+            <xm:f>List_Var!$B$14:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C18</xm:sqref>
+          <xm:sqref>C18 C24 C30 C36 C42 C48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
+            <xm:f>List_Var!$B$8:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List_Var!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C49</xm:sqref>
+          <xm:sqref>C19 C25 C31 C37 C43 C49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4746,7 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -4758,7 +4708,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4769,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4777,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4785,7 +4735,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4793,7 +4743,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4801,7 +4751,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4809,7 +4759,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4767,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,7 +4783,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4841,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4849,7 +4799,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,452 +4807,452 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
         <v>50</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Set" sheetId="3" r:id="rId1"/>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>archive-location-explanation-none</t>
-  </si>
-  <si>
-    <t>Provide an explanation; if To Be Determined; Unable to Archive; or No Archiving Intended was entered.</t>
   </si>
   <si>
     <t>delay-collection-archive</t>
@@ -934,6 +931,9 @@
   </si>
   <si>
     <t>*A data entity is used to describe a data set or report that contains attributes (columns or fields of data). This entity is nested within the data set metadata (previous tab).</t>
+  </si>
+  <si>
+    <t>Provide an explanation if Other, To Be Determined; Unable to Archive; or No Archiving Intended was entered.</t>
   </si>
 </sst>
 </file>
@@ -1444,14 +1444,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,12 +1751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="24" t="s">
         <v>35</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1909,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,7 +2183,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>64</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>91</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>92</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3099,11 +3099,11 @@
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C117" s="46"/>
       <c r="D117" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3111,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="9"/>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="9"/>
@@ -3131,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="9"/>
@@ -3180,7 +3180,7 @@
         <v>101</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3218,7 +3218,7 @@
         <v>105</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,7 +3441,7 @@
         <v>129</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>130</v>
@@ -3455,7 +3455,7 @@
         <v>131</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>133</v>
@@ -3468,12 +3468,9 @@
       <c r="B147" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="17" t="str">
-        <f>IF(C146 = "To Be Determined", "ENTER EXPLANATION", IF(C146 = "Unable to Archive", "ENTER EXPLANATION", IF(C146 = "No Archiving Intended", "ENTER EXPLANATION","")))</f>
-        <v/>
-      </c>
+      <c r="C147" s="17"/>
       <c r="D147" s="9" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3481,14 +3478,14 @@
         <v>2</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="17">
         <f>C144</f>
         <v>0</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3496,11 +3493,11 @@
         <v>2</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3508,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>19</v>
@@ -3520,11 +3517,11 @@
         <v>2</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3532,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>19</v>
@@ -3545,13 +3542,13 @@
         <v>3</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3559,13 +3556,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C154" s="46">
         <v>1</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,7 +3574,7 @@
       </c>
       <c r="C155" s="46"/>
       <c r="D155" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3585,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D156" s="9"/>
     </row>
@@ -3597,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C157" s="23" t="s">
         <v>19</v>
@@ -3609,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C158" s="46">
         <v>2</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3627,7 +3624,7 @@
       </c>
       <c r="C159" s="46"/>
       <c r="D159" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3635,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C160" s="23" t="s">
         <v>19</v>
@@ -3647,13 +3644,13 @@
         <v>4</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C161" s="46">
         <v>3</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3665,7 +3662,7 @@
       </c>
       <c r="C162" s="46"/>
       <c r="D162" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3673,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>19</v>
@@ -3685,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C164" s="46">
         <v>4</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3703,7 +3700,7 @@
       </c>
       <c r="C165" s="46"/>
       <c r="D165" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3711,10 +3708,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -3723,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C167" s="39" t="s">
         <v>53</v>
@@ -3735,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>19</v>
@@ -3747,13 +3744,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C169" s="46">
         <v>5</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,7 +3762,7 @@
       </c>
       <c r="C170" s="46"/>
       <c r="D170" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3773,10 +3770,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -3785,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C172" s="39" t="s">
         <v>53</v>
@@ -3797,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C173" s="22" t="s">
         <v>19</v>
@@ -3809,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="9"/>
@@ -3819,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="9"/>
@@ -3829,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="9"/>
@@ -3839,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="9"/>
@@ -3849,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="9"/>
@@ -3859,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="9"/>
@@ -3869,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="9"/>
@@ -3879,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="9"/>
@@ -3889,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="9"/>
@@ -3899,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C183" s="50"/>
       <c r="D183" s="9"/>
@@ -3909,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="9"/>
@@ -3919,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="9"/>
@@ -3929,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="9"/>
@@ -3939,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="9"/>
@@ -3949,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="9"/>
@@ -3959,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="9"/>
@@ -3969,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C190" s="41"/>
       <c r="D190" s="8"/>
@@ -4041,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4056,12 +4053,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -4076,8 +4073,8 @@
       <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>262</v>
+      <c r="E2" s="60" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4111,7 +4108,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4182,7 +4179,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>36</v>
@@ -4197,7 +4194,7 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4207,12 +4204,12 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:5" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
@@ -4228,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4264,7 +4261,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4791,7 +4788,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4799,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4807,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4823,7 +4820,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4831,7 +4828,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4839,7 +4836,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4844,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4855,7 +4852,7 @@
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4871,7 +4868,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4879,7 +4876,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4887,7 +4884,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4895,7 +4892,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4903,7 +4900,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4911,7 +4908,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4927,7 +4924,7 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4935,7 +4932,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4940,7 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4951,7 +4948,7 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4959,7 +4956,7 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +4964,7 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4975,7 +4972,7 @@
         <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4991,7 +4988,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4999,7 +4996,7 @@
         <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5007,7 +5004,7 @@
         <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5015,7 +5012,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5023,7 +5020,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5031,7 +5028,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5039,7 +5036,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5047,7 +5044,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5055,7 +5052,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5063,7 +5060,7 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5071,7 +5068,7 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5079,7 +5076,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5087,7 +5084,7 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5095,7 +5092,7 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5103,7 +5100,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5111,7 +5108,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5119,7 +5116,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5127,7 +5124,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5135,7 +5132,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5143,7 +5140,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5151,7 +5148,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5159,7 +5156,7 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5167,7 +5164,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5183,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5191,7 +5188,7 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5199,33 +5196,33 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -5233,26 +5230,26 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3468,10 @@
       <c r="B147" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="17"/>
+      <c r="C147" s="17" t="str">
+        <f>IF(C146="To Be Determined","ENTER EXPLANATION",IF(C146="Unable to Archive","ENTER EXPLANATION",IF(C146="No Archiving Intended","ENTER EXPLANATION",IF(C146="Other","ENTER EXPLANATION",""))))</f>
+        <v>ENTER EXPLANATION</v>
+      </c>
       <c r="D147" s="9" t="s">
         <v>262</v>
       </c>

--- a/Master_Template.xlsx
+++ b/Master_Template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="265">
   <si>
     <t>level</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>To Be Determined</t>
-  </si>
-  <si>
-    <t>Enter only one of the following fixed values: NCEI-MD; NCEI-CO; NCEI-NC; NCEI-MS; World Data Center (WDC) Facility; Other; To Be Determined; Unable to Archive; No Archiving Intended</t>
   </si>
   <si>
     <t>archive-location-explanation-none</t>
@@ -933,7 +930,16 @@
     <t>*A data entity is used to describe a data set or report that contains attributes (columns or fields of data). This entity is nested within the data set metadata (previous tab).</t>
   </si>
   <si>
-    <t>Provide an explanation if Other, To Be Determined; Unable to Archive; or No Archiving Intended was entered.</t>
+    <t>archive-location-explanation-other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter only one of the following fixed values: NCEI-MD; NCEI-CO; NCEI-NC; NCEI-MS; World Data Center (WDC) Facility; Other; To Be Determined; Unable to Archive; No Archiving Intended. </t>
+  </si>
+  <si>
+    <t>Provide an explanation if To Be Determined; Unable to Archive; or No Archiving Intended was entered.</t>
+  </si>
+  <si>
+    <t>Provide an explanation if World Data Center (WDC) Facility; or Other was entered.</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,7 +1758,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,7 +1837,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -1883,7 +1889,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1895,7 +1901,7 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1909,7 +1915,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1947,7 +1953,7 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,7 +1977,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,7 +1989,7 @@
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,7 +2013,7 @@
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2019,7 +2025,7 @@
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,7 +2049,7 @@
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2055,7 +2061,7 @@
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,7 +2085,7 @@
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2091,7 +2097,7 @@
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2125,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,7 +2137,7 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,7 +2189,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2206,7 +2212,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>64</v>
@@ -2221,7 +2227,7 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,7 +2239,7 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2251,7 @@
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,7 +2289,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2301,7 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,7 +2313,7 @@
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,7 +2487,7 @@
         <v>91</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2493,7 +2499,7 @@
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,7 +2683,7 @@
         <v>92</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2689,7 +2695,7 @@
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2873,7 +2879,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3099,11 +3105,11 @@
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="46"/>
       <c r="D117" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3111,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="9"/>
@@ -3121,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="9"/>
@@ -3131,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="9"/>
@@ -3180,7 +3186,7 @@
         <v>101</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3192,7 +3198,7 @@
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3218,7 +3224,7 @@
         <v>105</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3236,7 @@
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -3242,7 +3248,7 @@
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,7 +3284,7 @@
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3290,7 +3296,7 @@
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3314,7 +3320,7 @@
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,7 +3332,7 @@
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,7 +3344,7 @@
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3350,7 +3356,7 @@
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,7 +3447,7 @@
         <v>129</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>130</v>
@@ -3455,10 +3461,10 @@
         <v>131</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3466,106 +3472,107 @@
         <v>2</v>
       </c>
       <c r="B147" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="17" t="str">
+        <f>IF(C146="To Be Determined","ENTER EXPLANATION HERE",IF(C146="Unable to Archive","ENTER EXPLANATION HERE",IF(C146="No Archiving Intended","ENTER EXPLANATION HERE","")))</f>
+        <v/>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>2</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="17" t="str">
+        <f>IF(C146="Other","ENTER EXPLANATION HERE",IF(C146="World Data Center (WDC) Facility","ENTER EXPLANATION HERE",""))</f>
+        <v>ENTER EXPLANATION HERE</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>2</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="17" t="str">
-        <f>IF(C146="To Be Determined","ENTER EXPLANATION",IF(C146="Unable to Archive","ENTER EXPLANATION",IF(C146="No Archiving Intended","ENTER EXPLANATION",IF(C146="Other","ENTER EXPLANATION",""))))</f>
-        <v>ENTER EXPLANATION</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="5">
-        <v>2</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="17">
+      <c r="C149" s="17">
         <f>C144</f>
         <v>0</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D149" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>2</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" s="17"/>
+      <c r="D150" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>2</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="17"/>
+      <c r="D152" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>2</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="44"/>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>3</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="48" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5">
-        <v>2</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
-        <v>1</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="5">
-        <v>2</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5">
-        <v>2</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="44"/>
-    </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="12">
-        <v>3</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="13">
-        <v>4</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C154" s="46">
-        <v>1</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3573,135 +3580,137 @@
         <v>4</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C155" s="46">
+        <v>1</v>
+      </c>
       <c r="D155" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>4</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="12">
-        <v>3</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C157" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="46"/>
+      <c r="D156" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="13">
+        <v>4</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="12">
+        <v>3</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D157" s="18"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="13">
-        <v>4</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C158" s="46">
-        <v>2</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D158" s="18"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>4</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C159" s="46">
+        <v>2</v>
+      </c>
       <c r="D159" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="12">
-        <v>3</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="23" t="s">
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="13">
+        <v>4</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="46"/>
+      <c r="D160" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="12">
+        <v>3</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="18"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="13">
-        <v>4</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C161" s="46">
-        <v>3</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D161" s="18"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>4</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C162" s="46">
+        <v>3</v>
+      </c>
       <c r="D162" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="12">
-        <v>3</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="23" t="s">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="13">
+        <v>4</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="46"/>
+      <c r="D163" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="12">
+        <v>3</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="18"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="13">
-        <v>4</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C164" s="46">
-        <v>4</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>4</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C165" s="46">
+        <v>4</v>
+      </c>
       <c r="D165" s="9" t="s">
         <v>178</v>
       </c>
@@ -3711,59 +3720,59 @@
         <v>4</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="46"/>
+      <c r="D166" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="13">
+        <v>4</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="14">
+        <v>4</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C166" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="14">
-        <v>4</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C167" s="39" t="s">
+      <c r="C168" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="19"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="12">
-        <v>3</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C168" s="23" t="s">
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="12">
+        <v>3</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D168" s="18"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="13">
-        <v>4</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C169" s="46">
-        <v>5</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="D169" s="18"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>4</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C170" s="46">
+        <v>5</v>
+      </c>
       <c r="D170" s="9" t="s">
         <v>178</v>
       </c>
@@ -3773,45 +3782,47 @@
         <v>4</v>
       </c>
       <c r="B171" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="46"/>
+      <c r="D171" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="13">
+        <v>4</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="14">
+        <v>4</v>
+      </c>
+      <c r="B173" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C171" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="14">
-        <v>4</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C172" s="39" t="s">
+      <c r="C173" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D172" s="19"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="5">
-        <v>1</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="9"/>
+      <c r="D173" s="19"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C174" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3819,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="9"/>
@@ -3829,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="9"/>
@@ -3839,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="9"/>
@@ -3849,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="9"/>
@@ -3859,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="9"/>
@@ -3869,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="9"/>
@@ -3879,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="9"/>
@@ -3889,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="9"/>
@@ -3899,9 +3910,9 @@
         <v>2</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C183" s="50"/>
+        <v>153</v>
+      </c>
+      <c r="C183" s="22"/>
       <c r="D183" s="9"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3909,9 +3920,9 @@
         <v>2</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C184" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="C184" s="50"/>
       <c r="D184" s="9"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="9"/>
@@ -3929,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="9"/>
@@ -3939,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="9"/>
@@ -3949,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="9"/>
@@ -3959,20 +3970,30 @@
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="9"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
-        <v>2</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C190" s="41"/>
-      <c r="D190" s="8"/>
+      <c r="A190" s="5">
+        <v>2</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" s="22"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>2</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C191" s="41"/>
+      <c r="D191" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4077,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4111,7 +4132,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4182,7 +4203,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>36</v>
@@ -4197,7 +4218,7 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4228,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4264,7 +4285,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4791,7 +4812,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4799,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4807,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4823,7 +4844,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4831,7 +4852,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4839,7 +4860,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4868,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4855,7 +4876,7 @@
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4871,7 +4892,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4879,7 +4900,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4887,7 +4908,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4895,7 +4916,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4903,7 +4924,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4911,7 +4932,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4927,7 +4948,7 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4935,7 +4956,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4964,7 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4951,7 +4972,7 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4959,7 +4980,7 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +4988,7 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4975,7 +4996,7 @@
         <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4991,7 +5012,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4999,7 +5020,7 @@
         <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5007,7 +5028,7 @@
         <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5015,7 +5036,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5023,7 +5044,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5031,7 +5052,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5039,7 +5060,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5047,7 +5068,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5055,7 +5076,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5063,7 +5084,7 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5071,7 +5092,7 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5079,7 +5100,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5087,7 +5108,7 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5095,7 +5116,7 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5103,7 +5124,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5111,7 +5132,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5119,7 +5140,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5127,7 +5148,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5135,7 +5156,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5143,7 +5164,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5151,7 +5172,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5159,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5167,7 +5188,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5183,7 +5204,7 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5191,7 +5212,7 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5199,33 +5220,33 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -5233,26 +5254,26 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
